--- a/results.xlsx
+++ b/results.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1057.8</v>
+        <v>1058.3</v>
       </c>
       <c r="E2" t="n">
-        <v>64.48319999999876</v>
+        <v>50.45519999999669</v>
       </c>
       <c r="F2" t="n">
         <v>30000</v>
@@ -513,7 +513,7 @@
         <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>59.2368</v>
+        <v>59.26479999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>552.4400000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>1057.8</v>
+        <v>1058.3</v>
       </c>
       <c r="E3" t="n">
-        <v>616.9231999999988</v>
+        <v>602.8951999999967</v>
       </c>
       <c r="F3" t="n">
-        <v>30235.3232</v>
+        <v>30235.29519999999</v>
       </c>
       <c r="G3" t="n">
         <v>28</v>
@@ -566,13 +566,13 @@
         <v>572.17</v>
       </c>
       <c r="D4" t="n">
-        <v>1056.570212765957</v>
+        <v>1057.059574468085</v>
       </c>
       <c r="E4" t="n">
-        <v>110.6798468085096</v>
+        <v>96.16150638297563</v>
       </c>
       <c r="F4" t="n">
-        <v>30751.21601702128</v>
+        <v>30750.88916595744</v>
       </c>
       <c r="G4" t="n">
         <v>29</v>
@@ -581,10 +581,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.113140425531915</v>
+        <v>2.11411914893617</v>
       </c>
       <c r="J4" t="n">
-        <v>74.38209999999999</v>
+        <v>143.6344</v>
       </c>
     </row>
     <row r="5">
@@ -600,13 +600,13 @@
         <v>572.17</v>
       </c>
       <c r="D5" t="n">
-        <v>1055.340425531915</v>
+        <v>1055.81914893617</v>
       </c>
       <c r="E5" t="n">
-        <v>682.8498468085096</v>
+        <v>668.3315063829756</v>
       </c>
       <c r="F5" t="n">
-        <v>31287.72218723404</v>
+        <v>31287.08682553191</v>
       </c>
       <c r="G5" t="n">
         <v>29</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.38209999999999</v>
+        <v>218.0165</v>
       </c>
     </row>
     <row r="6">
@@ -634,13 +634,13 @@
         <v>591.9</v>
       </c>
       <c r="D6" t="n">
-        <v>1054.110638297872</v>
+        <v>1054.578723404255</v>
       </c>
       <c r="E6" t="n">
-        <v>198.8009872340415</v>
+        <v>183.8136255319118</v>
       </c>
       <c r="F6" t="n">
-        <v>31822.12013617021</v>
+        <v>31821.17532765957</v>
       </c>
       <c r="G6" t="n">
         <v>30</v>
@@ -649,10 +649,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.108221276595745</v>
+        <v>2.10915744680851</v>
       </c>
       <c r="J6" t="n">
-        <v>76.947</v>
+        <v>292.3986</v>
       </c>
     </row>
     <row r="7">
@@ -668,13 +668,13 @@
         <v>591.9</v>
       </c>
       <c r="D7" t="n">
-        <v>1052.88085106383</v>
+        <v>1053.33829787234</v>
       </c>
       <c r="E7" t="n">
-        <v>790.7009872340415</v>
+        <v>775.7136255319118</v>
       </c>
       <c r="F7" t="n">
-        <v>32377.12651914894</v>
+        <v>32375.86256170213</v>
       </c>
       <c r="G7" t="n">
         <v>30</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>76.947</v>
+        <v>369.3456</v>
       </c>
     </row>
     <row r="8">
@@ -702,13 +702,13 @@
         <v>611.63</v>
       </c>
       <c r="D8" t="n">
-        <v>1051.651063829787</v>
+        <v>1052.097872340426</v>
       </c>
       <c r="E8" t="n">
-        <v>328.8466212765945</v>
+        <v>313.4115574468053</v>
       </c>
       <c r="F8" t="n">
-        <v>32930.0296</v>
+        <v>32928.4456</v>
       </c>
       <c r="G8" t="n">
         <v>31</v>
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.103302127659575</v>
+        <v>2.104195744680851</v>
       </c>
       <c r="J8" t="n">
-        <v>79.5119</v>
+        <v>446.2926</v>
       </c>
     </row>
     <row r="9">
@@ -736,13 +736,13 @@
         <v>611.63</v>
       </c>
       <c r="D9" t="n">
-        <v>1050.421276595745</v>
+        <v>1050.857446808511</v>
       </c>
       <c r="E9" t="n">
-        <v>940.4766212765945</v>
+        <v>399.2370574468054</v>
       </c>
       <c r="F9" t="n">
-        <v>33503.53619574467</v>
+        <v>32975.81790851063</v>
       </c>
       <c r="G9" t="n">
         <v>31</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>79.5119</v>
+        <v>525.8045</v>
       </c>
     </row>
     <row r="10">
@@ -767,28 +767,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>631.36</v>
+        <v>611.63</v>
       </c>
       <c r="D10" t="n">
-        <v>1049.191489361702</v>
+        <v>1049.617021276596</v>
       </c>
       <c r="E10" t="n">
-        <v>500.8167489361692</v>
+        <v>1010.867057446805</v>
       </c>
       <c r="F10" t="n">
-        <v>34074.94440851063</v>
+        <v>33548.99471702128</v>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.098382978723404</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>82.07680000000001</v>
+        <v>79.5119</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>651.09</v>
+        <v>631.36</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.961702127659</v>
+        <v>1048.376595744681</v>
       </c>
       <c r="E11" t="n">
-        <v>82.11912340425442</v>
+        <v>572.0237085106351</v>
       </c>
       <c r="F11" t="n">
-        <v>34664.85529361702</v>
+        <v>34120.07477234042</v>
       </c>
       <c r="G11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.095923404255319</v>
+        <v>2.096753191489362</v>
       </c>
       <c r="J11" t="n">
-        <v>84.6417</v>
+        <v>159.0238</v>
       </c>
     </row>
     <row r="12">
@@ -838,25 +838,25 @@
         <v>651.09</v>
       </c>
       <c r="D12" t="n">
-        <v>1046.731914893617</v>
+        <v>1047.136170212766</v>
       </c>
       <c r="E12" t="n">
-        <v>733.2091234042545</v>
+        <v>154.1532659574439</v>
       </c>
       <c r="F12" t="n">
-        <v>35275.36231489361</v>
+        <v>34709.64688297872</v>
       </c>
       <c r="G12" t="n">
         <v>33</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.094272340425532</v>
       </c>
       <c r="J12" t="n">
-        <v>84.6417</v>
+        <v>241.1006</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +869,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>670.8200000000001</v>
+        <v>651.09</v>
       </c>
       <c r="D13" t="n">
-        <v>1045.502127659574</v>
+        <v>1045.895744680851</v>
       </c>
       <c r="E13" t="n">
-        <v>336.7059914893609</v>
+        <v>805.2432659574439</v>
       </c>
       <c r="F13" t="n">
-        <v>35883.77833191489</v>
+        <v>35319.80284042552</v>
       </c>
       <c r="G13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.091004255319149</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.20660000000001</v>
+        <v>325.7423</v>
       </c>
     </row>
     <row r="14">
@@ -906,25 +906,25 @@
         <v>670.8200000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>1044.272340425532</v>
+        <v>1044.655319148936</v>
       </c>
       <c r="E14" t="n">
-        <v>1007.525991489361</v>
+        <v>409.5886361702101</v>
       </c>
       <c r="F14" t="n">
-        <v>36512.78556595744</v>
+        <v>35927.86948723403</v>
       </c>
       <c r="G14" t="n">
         <v>34</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.089310638297872</v>
       </c>
       <c r="J14" t="n">
-        <v>87.20660000000001</v>
+        <v>410.384</v>
       </c>
     </row>
     <row r="15">
@@ -940,13 +940,13 @@
         <v>690.5500000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>1043.042553191489</v>
+        <v>1043.414893617021</v>
       </c>
       <c r="E15" t="n">
-        <v>633.2173531914887</v>
+        <v>34.90691276595476</v>
       </c>
       <c r="F15" t="n">
-        <v>37139.70671489362</v>
+        <v>36554.4281893617</v>
       </c>
       <c r="G15" t="n">
         <v>35</v>
@@ -955,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.086085106382979</v>
+        <v>2.086829787234043</v>
       </c>
       <c r="J15" t="n">
-        <v>89.77150000000002</v>
+        <v>497.5906</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +971,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>710.28</v>
+        <v>690.5500000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>1041.812765957447</v>
+        <v>1042.174468085106</v>
       </c>
       <c r="E16" t="n">
-        <v>279.870961702127</v>
+        <v>725.4569127659548</v>
       </c>
       <c r="F16" t="n">
-        <v>37785.13053617022</v>
+        <v>37201.56329574468</v>
       </c>
       <c r="G16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.083625531914894</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.3364</v>
+        <v>587.3621000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1008,25 +1008,25 @@
         <v>710.28</v>
       </c>
       <c r="D17" t="n">
-        <v>1040.582978723404</v>
+        <v>1040.934042553191</v>
       </c>
       <c r="E17" t="n">
-        <v>990.150961702127</v>
+        <v>372.9910021276571</v>
       </c>
       <c r="F17" t="n">
-        <v>38451.13819574468</v>
+        <v>37846.61653404255</v>
       </c>
       <c r="G17" t="n">
         <v>36</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.081868085106383</v>
       </c>
       <c r="J17" t="n">
-        <v>92.3364</v>
+        <v>677.1336000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1042,13 +1042,13 @@
         <v>730.01</v>
       </c>
       <c r="D18" t="n">
-        <v>1039.353191489362</v>
+        <v>1039.693617021277</v>
       </c>
       <c r="E18" t="n">
-        <v>658.9990638297866</v>
+        <v>41.49799787233792</v>
       </c>
       <c r="F18" t="n">
-        <v>39115.06714893617</v>
+        <v>38510.16182765957</v>
       </c>
       <c r="G18" t="n">
         <v>37</v>
@@ -1057,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.078706382978723</v>
+        <v>2.079387234042553</v>
       </c>
       <c r="J18" t="n">
-        <v>94.90130000000001</v>
+        <v>769.4700000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1073,28 +1073,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>749.74</v>
+        <v>730.01</v>
       </c>
       <c r="D19" t="n">
-        <v>1038.123404255319</v>
+        <v>1038.453191489362</v>
       </c>
       <c r="E19" t="n">
-        <v>348.8094127659567</v>
+        <v>771.5079978723379</v>
       </c>
       <c r="F19" t="n">
-        <v>39797.49877446808</v>
+        <v>39194.27608297871</v>
       </c>
       <c r="G19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.076246808510638</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>97.4662</v>
+        <v>864.3713000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1107,28 +1107,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>769.47</v>
+        <v>749.74</v>
       </c>
       <c r="D20" t="n">
-        <v>1036.893617021277</v>
+        <v>1037.212765957447</v>
       </c>
       <c r="E20" t="n">
-        <v>59.58200851063748</v>
+        <v>462.2308063829762</v>
       </c>
       <c r="F20" t="n">
-        <v>40498.43307234043</v>
+        <v>39876.31591276596</v>
       </c>
       <c r="G20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.073787234042553</v>
+        <v>2.074425531914894</v>
       </c>
       <c r="J20" t="n">
-        <v>100.0311</v>
+        <v>959.2726000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1141,19 +1141,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>769.47</v>
+        <v>749.74</v>
       </c>
       <c r="D21" t="n">
-        <v>1035.663829787234</v>
+        <v>1035.972340425532</v>
       </c>
       <c r="E21" t="n">
-        <v>829.0520085106375</v>
+        <v>155.2320063829761</v>
       </c>
       <c r="F21" t="n">
-        <v>41219.94137021276</v>
+        <v>39522.18094255319</v>
       </c>
       <c r="G21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100.0311</v>
+        <v>1056.7388</v>
       </c>
     </row>
     <row r="22">
@@ -1175,28 +1175,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>789.2</v>
+        <v>749.74</v>
       </c>
       <c r="D22" t="n">
-        <v>1034.434042553191</v>
+        <v>1034.731914893617</v>
       </c>
       <c r="E22" t="n">
-        <v>562.0190978723397</v>
+        <v>904.9720063829761</v>
       </c>
       <c r="F22" t="n">
-        <v>41939.3808</v>
+        <v>40224.78477234042</v>
       </c>
       <c r="G22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.068868085106383</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>102.596</v>
+        <v>97.4662</v>
       </c>
     </row>
     <row r="23">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>808.9300000000001</v>
+        <v>769.47</v>
       </c>
       <c r="D23" t="n">
-        <v>1033.204255319149</v>
+        <v>1033.491489361702</v>
       </c>
       <c r="E23" t="n">
-        <v>315.9484340425527</v>
+        <v>619.1535340425505</v>
       </c>
       <c r="F23" t="n">
-        <v>42677.32290212766</v>
+        <v>40925.32161914893</v>
       </c>
       <c r="G23" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.066408510638298</v>
+        <v>2.066982978723404</v>
       </c>
       <c r="J23" t="n">
-        <v>105.1609</v>
+        <v>194.9324</v>
       </c>
     </row>
     <row r="24">
@@ -1243,28 +1243,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>828.66</v>
+        <v>789.2</v>
       </c>
       <c r="D24" t="n">
-        <v>1031.974468085106</v>
+        <v>1032.251063829787</v>
       </c>
       <c r="E24" t="n">
-        <v>90.84001702127625</v>
+        <v>354.3079680851038</v>
       </c>
       <c r="F24" t="n">
-        <v>43433.76767659574</v>
+        <v>41644.35052127659</v>
       </c>
       <c r="G24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.063948936170213</v>
+        <v>2.064502127659575</v>
       </c>
       <c r="J24" t="n">
-        <v>107.7258</v>
+        <v>294.9635</v>
       </c>
     </row>
     <row r="25">
@@ -1277,28 +1277,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>828.66</v>
+        <v>808.9300000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1030.744680851064</v>
+        <v>1031.010638297872</v>
       </c>
       <c r="E25" t="n">
-        <v>919.5000170212762</v>
+        <v>110.4353085106359</v>
       </c>
       <c r="F25" t="n">
-        <v>44210.77661276595</v>
+        <v>42381.8714787234</v>
       </c>
       <c r="G25" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.062021276595745</v>
       </c>
       <c r="J25" t="n">
-        <v>107.7258</v>
+        <v>397.5595</v>
       </c>
     </row>
     <row r="26">
@@ -1311,28 +1311,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>848.39</v>
+        <v>808.9300000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>1029.514893617021</v>
+        <v>1029.770212765957</v>
       </c>
       <c r="E26" t="n">
-        <v>716.5860936170209</v>
+        <v>919.3653085106359</v>
       </c>
       <c r="F26" t="n">
-        <v>44985.72651914894</v>
+        <v>43139.94403191489</v>
       </c>
       <c r="G26" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.059029787234043</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>110.2907</v>
+        <v>502.7204</v>
       </c>
     </row>
     <row r="27">
@@ -1345,28 +1345,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>868.12</v>
+        <v>828.66</v>
       </c>
       <c r="D27" t="n">
-        <v>1028.285106382979</v>
+        <v>1028.529787234042</v>
       </c>
       <c r="E27" t="n">
-        <v>534.6344170212762</v>
+        <v>697.7084617021255</v>
       </c>
       <c r="F27" t="n">
-        <v>45779.17909787234</v>
+        <v>43895.95952553191</v>
       </c>
       <c r="G27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.056570212765958</v>
+        <v>2.057059574468085</v>
       </c>
       <c r="J27" t="n">
-        <v>112.8556</v>
+        <v>607.8813</v>
       </c>
     </row>
     <row r="28">
@@ -1379,28 +1379,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>887.85</v>
+        <v>848.39</v>
       </c>
       <c r="D28" t="n">
-        <v>1027.055319148936</v>
+        <v>1027.289361702128</v>
       </c>
       <c r="E28" t="n">
-        <v>373.6449872340422</v>
+        <v>497.0245212765933</v>
       </c>
       <c r="F28" t="n">
-        <v>46591.13434893618</v>
+        <v>44670.46707446808</v>
       </c>
       <c r="G28" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.054110638297872</v>
+        <v>2.054578723404255</v>
       </c>
       <c r="J28" t="n">
-        <v>115.4205</v>
+        <v>715.6070999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>907.58</v>
+        <v>868.12</v>
       </c>
       <c r="D29" t="n">
-        <v>1025.825531914894</v>
+        <v>1026.048936170213</v>
       </c>
       <c r="E29" t="n">
-        <v>233.6178042553188</v>
+        <v>317.3134872340402</v>
       </c>
       <c r="F29" t="n">
-        <v>47421.59227234043</v>
+        <v>45463.4666787234</v>
       </c>
       <c r="G29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.051651063829787</v>
+        <v>2.052097872340426</v>
       </c>
       <c r="J29" t="n">
-        <v>117.9854</v>
+        <v>825.8978</v>
       </c>
     </row>
     <row r="30">
@@ -1447,28 +1447,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>927.3100000000001</v>
+        <v>887.85</v>
       </c>
       <c r="D30" t="n">
-        <v>1024.595744680851</v>
+        <v>1024.808510638298</v>
       </c>
       <c r="E30" t="n">
-        <v>114.552868085106</v>
+        <v>158.5753595744657</v>
       </c>
       <c r="F30" t="n">
-        <v>48270.55286808511</v>
+        <v>46274.95833829787</v>
       </c>
       <c r="G30" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.049191489361702</v>
+        <v>2.049617021276596</v>
       </c>
       <c r="J30" t="n">
-        <v>120.5503</v>
+        <v>938.7533999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1481,28 +1481,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>947.04</v>
+        <v>907.58</v>
       </c>
       <c r="D31" t="n">
-        <v>1023.365957446808</v>
+        <v>1023.568085106383</v>
       </c>
       <c r="E31" t="n">
-        <v>16.45017872340395</v>
+        <v>20.81013829787003</v>
       </c>
       <c r="F31" t="n">
-        <v>49138.01613617021</v>
+        <v>47104.94205319149</v>
       </c>
       <c r="G31" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.046731914893617</v>
+        <v>2.047136170212766</v>
       </c>
       <c r="J31" t="n">
-        <v>123.1152</v>
+        <v>1054.1739</v>
       </c>
     </row>
     <row r="32">
@@ -1515,19 +1515,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>947.04</v>
+        <v>907.58</v>
       </c>
       <c r="D32" t="n">
-        <v>1022.136170212766</v>
+        <v>1022.327659574468</v>
       </c>
       <c r="E32" t="n">
-        <v>963.4901787234039</v>
+        <v>928.3901382978701</v>
       </c>
       <c r="F32" t="n">
-        <v>50026.02634893617</v>
+        <v>47955.46247872341</v>
       </c>
       <c r="G32" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>123.1152</v>
+        <v>1172.1593</v>
       </c>
     </row>
     <row r="33">
@@ -1549,28 +1549,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>966.77</v>
+        <v>907.58</v>
       </c>
       <c r="D33" t="n">
-        <v>1020.906382978723</v>
+        <v>1021.087234042553</v>
       </c>
       <c r="E33" t="n">
-        <v>887.581982978723</v>
+        <v>545.8254382978701</v>
       </c>
       <c r="F33" t="n">
-        <v>50911.99474893617</v>
+        <v>47515.83820425531</v>
       </c>
       <c r="G33" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.041812765957447</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>125.6801</v>
+        <v>1290.1447</v>
       </c>
     </row>
     <row r="34">
@@ -1583,28 +1583,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>986.5</v>
+        <v>927.3100000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>1019.676595744681</v>
+        <v>1019.846808510638</v>
       </c>
       <c r="E34" t="n">
-        <v>832.6360340425526</v>
+        <v>431.5189361702106</v>
       </c>
       <c r="F34" t="n">
-        <v>51816.46582127659</v>
+        <v>48364.31893617022</v>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.039353191489362</v>
+        <v>2.039693617021276</v>
       </c>
       <c r="J34" t="n">
-        <v>128.245</v>
+        <v>117.9854</v>
       </c>
     </row>
     <row r="35">
@@ -1617,28 +1617,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1006.23</v>
+        <v>947.04</v>
       </c>
       <c r="D35" t="n">
-        <v>1018.446808510638</v>
+        <v>1018.606382978723</v>
       </c>
       <c r="E35" t="n">
-        <v>798.652331914893</v>
+        <v>338.1853404255299</v>
       </c>
       <c r="F35" t="n">
-        <v>52739.43956595744</v>
+        <v>49231.29172340425</v>
       </c>
       <c r="G35" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.036893617021277</v>
+        <v>2.037212765957447</v>
       </c>
       <c r="J35" t="n">
-        <v>130.8099</v>
+        <v>238.5357</v>
       </c>
     </row>
     <row r="36">
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1025.96</v>
+        <v>966.77</v>
       </c>
       <c r="D36" t="n">
-        <v>1017.217021276596</v>
+        <v>1017.365957446808</v>
       </c>
       <c r="E36" t="n">
-        <v>785.6308765957441</v>
+        <v>265.8246510638277</v>
       </c>
       <c r="F36" t="n">
-        <v>53680.91598297872</v>
+        <v>50116.75656595744</v>
       </c>
       <c r="G36" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.034434042553191</v>
+        <v>2.034731914893617</v>
       </c>
       <c r="J36" t="n">
-        <v>133.3748</v>
+        <v>361.6509</v>
       </c>
     </row>
     <row r="37">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1045.69</v>
+        <v>986.5</v>
       </c>
       <c r="D37" t="n">
-        <v>1015.987234042553</v>
+        <v>1016.125531914894</v>
       </c>
       <c r="E37" t="n">
-        <v>793.571668085106</v>
+        <v>214.4368680851044</v>
       </c>
       <c r="F37" t="n">
-        <v>54640.89507234042</v>
+        <v>51020.71346382979</v>
       </c>
       <c r="G37" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.031974468085106</v>
+        <v>2.032251063829787</v>
       </c>
       <c r="J37" t="n">
-        <v>135.9397</v>
+        <v>487.331</v>
       </c>
     </row>
     <row r="38">
@@ -1719,28 +1719,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1065.42</v>
+        <v>1006.23</v>
       </c>
       <c r="D38" t="n">
-        <v>1014.757446808511</v>
+        <v>1014.885106382979</v>
       </c>
       <c r="E38" t="n">
-        <v>822.4747063829784</v>
+        <v>184.0219914893597</v>
       </c>
       <c r="F38" t="n">
-        <v>55619.37683404255</v>
+        <v>51943.16241702127</v>
       </c>
       <c r="G38" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2.029514893617021</v>
+        <v>2.029770212765957</v>
       </c>
       <c r="J38" t="n">
-        <v>138.5046</v>
+        <v>615.576</v>
       </c>
     </row>
     <row r="39">
@@ -1753,28 +1753,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1085.15</v>
+        <v>1025.96</v>
       </c>
       <c r="D39" t="n">
-        <v>1013.527659574468</v>
+        <v>1013.644680851064</v>
       </c>
       <c r="E39" t="n">
-        <v>872.3399914893614</v>
+        <v>174.5800212765936</v>
       </c>
       <c r="F39" t="n">
-        <v>56616.36126808511</v>
+        <v>52884.10342553192</v>
       </c>
       <c r="G39" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>2.027055319148936</v>
+        <v>2.027289361702128</v>
       </c>
       <c r="J39" t="n">
-        <v>141.0695</v>
+        <v>746.3859</v>
       </c>
     </row>
     <row r="40">
@@ -1787,28 +1787,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1104.88</v>
+        <v>1045.69</v>
       </c>
       <c r="D40" t="n">
-        <v>1012.297872340426</v>
+        <v>1012.404255319149</v>
       </c>
       <c r="E40" t="n">
-        <v>943.1675234042551</v>
+        <v>186.1109574468063</v>
       </c>
       <c r="F40" t="n">
-        <v>57631.84837446809</v>
+        <v>53843.5364893617</v>
       </c>
       <c r="G40" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.024595744680851</v>
+        <v>2.024808510638298</v>
       </c>
       <c r="J40" t="n">
-        <v>143.6344</v>
+        <v>879.7607</v>
       </c>
     </row>
     <row r="41">
@@ -1821,28 +1821,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1144.34</v>
+        <v>1065.42</v>
       </c>
       <c r="D41" t="n">
-        <v>1011.068085106383</v>
+        <v>1011.163829787234</v>
       </c>
       <c r="E41" t="n">
-        <v>21.86708085106352</v>
+        <v>218.614799999998</v>
       </c>
       <c r="F41" t="n">
-        <v>58663.81601702128</v>
+        <v>54821.46160851063</v>
       </c>
       <c r="G41" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>4.044272340425533</v>
+        <v>2.022327659574468</v>
       </c>
       <c r="J41" t="n">
-        <v>148.7642</v>
+        <v>1015.7004</v>
       </c>
     </row>
     <row r="42">
@@ -1855,28 +1855,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1164.07</v>
+        <v>1085.15</v>
       </c>
       <c r="D42" t="n">
-        <v>1009.83829787234</v>
+        <v>1009.923404255319</v>
       </c>
       <c r="E42" t="n">
-        <v>154.3491063829783</v>
+        <v>272.0915489361682</v>
       </c>
       <c r="F42" t="n">
-        <v>59734.80868085106</v>
+        <v>55817.87878297872</v>
       </c>
       <c r="G42" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.019676595744681</v>
+        <v>2.019846808510638</v>
       </c>
       <c r="J42" t="n">
-        <v>151.3291</v>
+        <v>1154.205</v>
       </c>
     </row>
     <row r="43">
@@ -1889,28 +1889,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1183.8</v>
+        <v>1104.88</v>
       </c>
       <c r="D43" t="n">
-        <v>1008.608510638298</v>
+        <v>1008.682978723404</v>
       </c>
       <c r="E43" t="n">
-        <v>307.7933787234039</v>
+        <v>346.5412042553172</v>
       </c>
       <c r="F43" t="n">
-        <v>60824.30401702128</v>
+        <v>56832.78801276595</v>
       </c>
       <c r="G43" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.017217021276596</v>
+        <v>2.017365957446809</v>
       </c>
       <c r="J43" t="n">
-        <v>153.894</v>
+        <v>1295.2745</v>
       </c>
     </row>
     <row r="44">
@@ -1923,28 +1923,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1203.53</v>
+        <v>1124.61</v>
       </c>
       <c r="D44" t="n">
-        <v>1007.378723404255</v>
+        <v>1007.442553191489</v>
       </c>
       <c r="E44" t="n">
-        <v>482.1998978723401</v>
+        <v>441.9637659574449</v>
       </c>
       <c r="F44" t="n">
-        <v>61932.30202553191</v>
+        <v>57866.18929787233</v>
       </c>
       <c r="G44" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.014757446808511</v>
+        <v>2.014885106382978</v>
       </c>
       <c r="J44" t="n">
-        <v>156.4589</v>
+        <v>1438.9089</v>
       </c>
     </row>
     <row r="45">
@@ -1957,28 +1957,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1223.26</v>
+        <v>1124.61</v>
       </c>
       <c r="D45" t="n">
-        <v>1006.148936170213</v>
+        <v>1006.202127659574</v>
       </c>
       <c r="E45" t="n">
-        <v>677.5686638297869</v>
+        <v>-18.53443404255518</v>
       </c>
       <c r="F45" t="n">
-        <v>63058.80270638298</v>
+        <v>57334.98684255318</v>
       </c>
       <c r="G45" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.012297872340425</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>159.0238</v>
+        <v>1585.1082</v>
       </c>
     </row>
     <row r="46">
@@ -1991,28 +1991,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1242.99</v>
+        <v>1144.34</v>
       </c>
       <c r="D46" t="n">
-        <v>1004.91914893617</v>
+        <v>1004.96170212766</v>
       </c>
       <c r="E46" t="n">
-        <v>893.8996765957443</v>
+        <v>99.10394042553003</v>
       </c>
       <c r="F46" t="n">
-        <v>64203.80605957447</v>
+        <v>58386.88266382978</v>
       </c>
       <c r="G46" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>2.00983829787234</v>
+        <v>2.009923404255319</v>
       </c>
       <c r="J46" t="n">
-        <v>161.5887</v>
+        <v>146.1993</v>
       </c>
     </row>
     <row r="47">
@@ -2025,28 +2025,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1282.45</v>
+        <v>1164.07</v>
       </c>
       <c r="D47" t="n">
-        <v>1003.689361702128</v>
+        <v>1003.721276595745</v>
       </c>
       <c r="E47" t="n">
-        <v>125.4961957446806</v>
+        <v>237.7152212765938</v>
       </c>
       <c r="F47" t="n">
-        <v>65365.30470638297</v>
+        <v>59457.27054042553</v>
       </c>
       <c r="G47" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>4.014757446808511</v>
+        <v>2.00744255319149</v>
       </c>
       <c r="J47" t="n">
-        <v>166.7185</v>
+        <v>294.9635</v>
       </c>
     </row>
     <row r="48">
@@ -2059,28 +2059,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1302.18</v>
+        <v>1183.8</v>
       </c>
       <c r="D48" t="n">
-        <v>1002.459574468085</v>
+        <v>1002.48085106383</v>
       </c>
       <c r="E48" t="n">
-        <v>403.4817021276593</v>
+        <v>397.2994085106365</v>
       </c>
       <c r="F48" t="n">
-        <v>66565.81361702127</v>
+        <v>60546.15047234041</v>
       </c>
       <c r="G48" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.00491914893617</v>
+        <v>2.004961702127659</v>
       </c>
       <c r="J48" t="n">
-        <v>169.2834</v>
+        <v>446.2926</v>
       </c>
     </row>
     <row r="49">
@@ -2093,28 +2093,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1321.91</v>
+        <v>1203.53</v>
       </c>
       <c r="D49" t="n">
-        <v>1001.229787234043</v>
+        <v>1001.240425531915</v>
       </c>
       <c r="E49" t="n">
-        <v>702.4294553191487</v>
+        <v>577.8565021276576</v>
       </c>
       <c r="F49" t="n">
-        <v>67784.82519999999</v>
+        <v>61653.52245957447</v>
       </c>
       <c r="G49" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.002459574468085</v>
+        <v>2.00248085106383</v>
       </c>
       <c r="J49" t="n">
-        <v>171.8483</v>
+        <v>600.1866</v>
       </c>
     </row>
     <row r="50">
@@ -2127,28 +2127,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1361.37</v>
+        <v>1223.26</v>
       </c>
       <c r="D50" t="n">
         <v>1000</v>
       </c>
       <c r="E50" t="n">
-        <v>20.33945531914878</v>
+        <v>779.3865021276574</v>
       </c>
       <c r="F50" t="n">
-        <v>69020.33945531915</v>
+        <v>62779.38650212766</v>
       </c>
       <c r="G50" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
       <c r="J50" t="n">
-        <v>176.9781</v>
+        <v>756.6455</v>
       </c>
     </row>
     <row r="51">
@@ -2162,12 +2162,12 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>69020.33945531915</v>
+        <v>62779.38650212766</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>143.1675659574468</v>
+        <v>128.9741063829787</v>
       </c>
       <c r="J51" t="inlineStr"/>
     </row>
@@ -2182,7 +2182,7 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>130.0677981843972</v>
+        <v>109.2646216737589</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>23.7715654066383</v>
+        <v>20.80517368751309</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -2218,7 +2218,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>63947.69532612766</v>
+        <v>58518.06625685106</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>113.1589844204255</v>
+        <v>95.0602208561702</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2254,7 +2254,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>21.37667159350487</v>
+        <v>18.65110715340361</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
